--- a/01-Document/Requirement.xlsx
+++ b/01-Document/Requirement.xlsx
@@ -5,16 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\03-DuAn\02-LedController\LedController\01-Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-DuAn\LedController\LedController\01-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
-    <sheet name="TimeLine" sheetId="2" r:id="rId2"/>
-    <sheet name="ChiPhi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Yêu cầu</t>
   </si>
@@ -103,17 +101,91 @@
     <t>Chi phí</t>
   </si>
   <si>
-    <t>Giá trị (1000 VND)</t>
-  </si>
-  <si>
     <t>Tổng</t>
   </si>
   <si>
+    <t>&lt;= 30K</t>
+  </si>
+  <si>
+    <t>T1/2019</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Bài Toán 2
-(Điều khiển bật/tắt đèn Led sử dụng cơ chế Dimming)</t>
-  </si>
-  <si>
-    <t>&lt;= 30K</t>
+- Thiết kế mạch điều khiển bật/tắt đèn Led dựa vào tín hiệu cảm biến hồng ngoại. Khi nhận được tín hiệu cảm biên, 2 Led gần nhất được bật.</t>
+  </si>
+  <si>
+    <t>Tín hiệu truyền thông 485</t>
+  </si>
+  <si>
+    <t>Hỗ trợ số lượng LED tối đa</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Giá trị ( đơn vị 1000 VND)</t>
+  </si>
+  <si>
+    <t>Mốc thời gian dự kiến</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Thiết kế mạch nguyên lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết tài liệu </t>
+  </si>
+  <si>
+    <t>ON/OFF ngay lập tức</t>
+  </si>
+  <si>
+    <t>Chuyển giao công nghệ</t>
+  </si>
+  <si>
+    <t>Chi phí chuyển giao công nghệ</t>
+  </si>
+  <si>
+    <t>Demo giải pháp + Chạy thử nghiệm</t>
+  </si>
+  <si>
+    <t>Nghiên cứu giải pháp
+ - Tìm kiếm linh kiện, xây dựng nguyên lý hoạt động</t>
+  </si>
+  <si>
+    <t>Mua sắm vật tư
+- Mua KIT phát triển, linh kiện điện tử</t>
+  </si>
+  <si>
+    <t>Lập trình, kiểm thử phần mềm</t>
+  </si>
+  <si>
+    <t>09 - 10/01/2019</t>
+  </si>
+  <si>
+    <t>11/01/2019</t>
+  </si>
+  <si>
+    <t>12-15/01/2019</t>
+  </si>
+  <si>
+    <t>16 - 20/01/2019</t>
+  </si>
+  <si>
+    <t>21-22/01/2019</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>25-26/01/2019</t>
+  </si>
+  <si>
+    <t>Thử nghiệm</t>
   </si>
 </sst>
 </file>
@@ -162,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -336,25 +408,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,28 +568,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,58 +908,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="I1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -748,18 +968,18 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -768,18 +988,18 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -788,7 +1008,7 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -798,262 +1018,403 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>4</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="18">
+        <v>5</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="I9" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="K9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="K10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="11" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="I12" s="18">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="I9" s="24">
-        <v>5</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="43"/>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="I12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="K13" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3">
-        <f>(1 * 500)</f>
-        <v>500</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3">
-        <f>(1 * 500)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+        <f>(2 * 1000)</f>
+        <v>2000</v>
+      </c>
+      <c r="I15" s="24">
+        <v>6.3</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3">
-        <f>3 * 500</f>
-        <v>1500</v>
-      </c>
-      <c r="I16" s="11">
+        <f>7 * 1000</f>
+        <v>7000</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="22">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="4">
+        <f>SUM(D14:D18)</f>
+        <v>15000</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="3">
+        <f>(2 * 1000)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="8">
         <v>3</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="3">
-        <f>3 * 500</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="4">
-        <f>SUM(D14:D16)</f>
-        <v>2300</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="4">
-        <f>SUM(K14:K16)</f>
-        <v>2700</v>
+      <c r="K20" s="3">
+        <f>7 * 1000</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="8">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="3">
+        <f>2*1000</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="22">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="3">
+        <f>3*1000</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="4">
+        <f>SUM(K18:K22)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I30" s="8">
+        <v>2</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I31" s="26">
+        <v>3</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I32" s="8">
+        <v>4</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I33" s="26">
+        <v>5</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I34" s="8">
+        <v>6</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="26">
+        <v>7</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01-Document/Requirement.xlsx
+++ b/01-Document/Requirement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-DuAn\LedController\LedController\01-Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\03-DuAn\02-LedController\LedController\01-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -595,6 +595,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -613,21 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,34 +912,34 @@
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
@@ -958,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -978,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -998,7 +999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>4.0999999999999996</v>
       </c>
@@ -1050,7 +1051,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>4.2</v>
       </c>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>5</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>5.0999999999999996</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>5.2</v>
       </c>
@@ -1124,12 +1125,12 @@
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="I12" s="18">
         <v>6</v>
       </c>
@@ -1138,8 +1139,8 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
       <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1156,16 +1157,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="I14" s="8">
         <v>6.2</v>
       </c>
@@ -1176,17 +1175,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
-        <f>(2 * 1000)</f>
-        <v>2000</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="I15" s="24">
         <v>6.3</v>
       </c>
@@ -1195,34 +1191,29 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3">
-        <f>7 * 1000</f>
-        <v>7000</v>
-      </c>
-      <c r="I16" s="36" t="s">
+      <c r="D16" s="3"/>
+      <c r="I16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="43"/>
+      <c r="D17" s="3"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1230,16 +1221,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3">
-        <v>3000</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="I18" s="8">
         <v>1</v>
       </c>
@@ -1250,15 +1239,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="39" t="s">
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="4">
-        <f>SUM(D14:D18)</f>
-        <v>15000</v>
-      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="44"/>
       <c r="I19" s="8">
         <v>2</v>
       </c>
@@ -1270,7 +1256,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I20" s="8">
         <v>3</v>
       </c>
@@ -1282,7 +1268,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I21" s="8">
         <v>4</v>
       </c>
@@ -1294,7 +1280,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I22" s="22">
         <v>5</v>
       </c>
@@ -1306,18 +1292,18 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="39" t="s">
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="4">
+      <c r="J23" s="37"/>
+      <c r="K23" s="44">
         <f>SUM(K18:K22)</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I28" s="30" t="s">
         <v>1</v>
       </c>
@@ -1328,29 +1314,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="I29" s="26">
         <v>1</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="I30" s="8">
         <v>2</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I31" s="26">
         <v>3</v>
       </c>
@@ -1361,7 +1347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I32" s="8">
         <v>4</v>
       </c>
@@ -1372,7 +1358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="26">
         <v>5</v>
       </c>
@@ -1383,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34" s="8">
         <v>6</v>
       </c>
@@ -1394,7 +1380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="9:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I35" s="26">
         <v>7</v>
       </c>
